--- a/formatomasivo.xlsx
+++ b/formatomasivo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Personal\Documentos personales\SCRIPT\CrearApps-CCAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D018317-78A4-47EC-B7FE-190960695145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DBD9B-BB62-45D3-83DD-139498384F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00253475-9E5D-4980-BCA0-0465A377EF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>code</t>
   </si>
@@ -131,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,13 +137,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,118 +494,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47979587-6DEF-4F71-82B5-CA05F49F01D7}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -599,15 +632,15 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -615,15 +648,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -631,15 +664,15 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -647,15 +680,15 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -663,15 +696,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -679,15 +712,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -695,15 +728,15 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -711,15 +744,15 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -727,15 +760,15 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -743,15 +776,15 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -759,15 +792,15 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -775,15 +808,15 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -791,15 +824,15 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -807,15 +840,15 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -823,15 +856,15 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -839,15 +872,15 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -855,15 +888,15 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -871,15 +904,15 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -887,15 +920,15 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -903,15 +936,15 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -919,15 +952,15 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -935,15 +968,15 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
       <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -951,15 +984,15 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -967,15 +1000,15 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -983,15 +1016,15 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -999,15 +1032,15 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1015,15 +1048,15 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1031,15 +1064,15 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1047,67 +1080,80 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E36" xr:uid="{CC564106-B49B-4F78-A43B-19E92A3B8121}">
-      <formula1>$P$5:$P$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D36" xr:uid="{ACFB51EF-94D6-4494-90DE-B895E23E9321}">
-      <formula1>$D$2:$E$2</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B4198C2-4D14-4421-8560-38A1AD5E2C0E}">
+          <x14:formula1>
+            <xm:f>Hoja2!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07A00BA7-C42B-4944-A404-7A300868A473}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF808EF-C8D0-4734-A414-804080BB68D6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1333,18 +1379,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,14 +1413,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C4FBCD-55D5-4E65-A101-C59B09BF16C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE1FE592-4A38-4ABF-9FBF-4B0212308C7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1552ba1a-654f-476b-b09d-56f5ffe5a7e6"/>
@@ -1389,4 +1427,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21C4FBCD-55D5-4E65-A101-C59B09BF16C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>